--- a/Project Management/Timetable Correct Version.xlsx
+++ b/Project Management/Timetable Correct Version.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22266" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22266" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>Task</t>
   </si>
@@ -106,6 +107,21 @@
   </si>
   <si>
     <t>Poster Deliverable</t>
+  </si>
+  <si>
+    <t>Deadline</t>
+  </si>
+  <si>
+    <t>Ethics form completed</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Draft Dissertation to Supervisor</t>
+  </si>
+  <si>
+    <t>Dissertation submitted</t>
   </si>
 </sst>
 </file>
@@ -148,12 +164,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1409,8 +1431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1789,4 +1811,129 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3EDA01-D0C3-4290-B271-FE02AF8970D6}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="6">
+        <v>43063</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="6">
+        <v>43003</v>
+      </c>
+      <c r="C3" s="6">
+        <v>43066</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="6">
+        <v>43084</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="6">
+        <v>43171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6">
+        <v>43213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6">
+        <v>43224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6">
+        <v>43227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>